--- a/inst/extdata/byhand_distribution-cheat-sheet2.xlsx
+++ b/inst/extdata/byhand_distribution-cheat-sheet2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au757887\PC_documents\_git-it\ipmopat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au757887\PC_documents\_git-it\PESTO\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E123F776-8F79-4F3A-AFBF-D78A2A0E6BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293AE87E-E15B-41E3-A63A-7E4962774733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AFCE3043-D670-4FEA-ACB5-43895439CF13}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
-    <t>rating</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -65,19 +62,22 @@
     <t>Use R simulations of the beta-distribution to figure out how to distribute it amonst the other bins</t>
   </si>
   <si>
-    <t>low impact</t>
-  </si>
-  <si>
-    <t>very low impact</t>
-  </si>
-  <si>
-    <t>medium impact</t>
-  </si>
-  <si>
-    <t>high impact</t>
-  </si>
-  <si>
-    <t>very high impact</t>
+    <t>very high</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>very low</t>
+  </si>
+  <si>
+    <t>rating_text</t>
   </si>
 </sst>
 </file>
@@ -112,22 +112,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -152,32 +141,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -204,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,7 +181,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -224,25 +193,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,33 +539,33 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="84.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="84.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -626,513 +583,513 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7">
+        <v>30</v>
+      </c>
+      <c r="E7" s="7">
+        <v>21</v>
+      </c>
+      <c r="F7" s="7">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3">
+        <f>SUM(C7:G7)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="8">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8">
+        <v>35</v>
+      </c>
+      <c r="E8" s="8">
+        <v>28.000000000000004</v>
+      </c>
+      <c r="F8" s="8">
+        <v>14.000000000000002</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" ref="H8:H11" si="0">SUM(C8:G8)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B9" s="1"/>
+      <c r="C9" s="8">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="D9" s="8">
+        <v>25.5</v>
+      </c>
+      <c r="E9" s="8">
         <v>35</v>
       </c>
-      <c r="D7" s="10">
+      <c r="F9" s="8">
+        <v>25.5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="8">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>14.000000000000002</v>
+      </c>
+      <c r="E10" s="8">
+        <v>28.000000000000004</v>
+      </c>
+      <c r="F10" s="8">
+        <v>35</v>
+      </c>
+      <c r="G10" s="8">
+        <v>21</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="9">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9">
+        <v>21</v>
+      </c>
+      <c r="F11" s="9">
         <v>30</v>
       </c>
-      <c r="E7" s="10">
-        <v>21</v>
-      </c>
-      <c r="F7" s="10">
-        <v>11</v>
-      </c>
-      <c r="G7" s="10">
-        <v>3</v>
-      </c>
-      <c r="H7" s="4">
-        <f>SUM(C7:G7)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="11">
-        <v>21</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="G11" s="9">
         <v>35</v>
       </c>
-      <c r="E8" s="11">
-        <v>28.000000000000004</v>
-      </c>
-      <c r="F8" s="11">
-        <v>14.000000000000002</v>
-      </c>
-      <c r="G8" s="11">
-        <v>2</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" ref="H8:H11" si="0">SUM(C8:G8)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="11">
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="D9" s="13">
-        <v>25.5</v>
-      </c>
-      <c r="E9" s="13">
-        <v>35</v>
-      </c>
-      <c r="F9" s="13">
-        <v>25.5</v>
-      </c>
-      <c r="G9" s="13">
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="11">
-        <v>2</v>
-      </c>
-      <c r="D10" s="11">
-        <v>14.000000000000002</v>
-      </c>
-      <c r="E10" s="11">
-        <v>28.000000000000004</v>
-      </c>
-      <c r="F10" s="11">
-        <v>35</v>
-      </c>
-      <c r="G10" s="11">
-        <v>21</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="12">
-        <v>3</v>
-      </c>
-      <c r="D11" s="12">
-        <v>11</v>
-      </c>
-      <c r="E11" s="12">
-        <v>21</v>
-      </c>
-      <c r="F11" s="12">
-        <v>30</v>
-      </c>
-      <c r="G11" s="12">
-        <v>35</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>50</v>
+      </c>
+      <c r="D12" s="7">
+        <v>35</v>
+      </c>
+      <c r="E12" s="7">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f>SUM(C12:G12)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="8">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8">
+        <v>50</v>
+      </c>
+      <c r="E13" s="8">
+        <v>28.000000000000004</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" ref="H13:H16" si="1">SUM(C13:G13)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8">
+        <v>50</v>
+      </c>
+      <c r="F14" s="8">
+        <v>24</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8">
+        <v>28.000000000000004</v>
+      </c>
+      <c r="F15" s="8">
+        <v>50</v>
+      </c>
+      <c r="G15" s="8">
+        <v>17</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
         <v>2</v>
       </c>
-      <c r="C12" s="10">
+      <c r="E16" s="9">
+        <v>13</v>
+      </c>
+      <c r="F16" s="9">
+        <v>35</v>
+      </c>
+      <c r="G16" s="9">
         <v>50</v>
       </c>
-      <c r="D12" s="10">
-        <v>35</v>
-      </c>
-      <c r="E12" s="10">
-        <v>13</v>
-      </c>
-      <c r="F12" s="10">
-        <v>2</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f>SUM(C12:G12)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="11">
-        <v>17</v>
-      </c>
-      <c r="D13" s="11">
-        <v>50</v>
-      </c>
-      <c r="E13" s="11">
-        <v>28.000000000000004</v>
-      </c>
-      <c r="F13" s="11">
-        <v>5</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" ref="H13:H16" si="1">SUM(C13:G13)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11">
-        <v>24</v>
-      </c>
-      <c r="E14" s="11">
-        <v>50</v>
-      </c>
-      <c r="F14" s="11">
-        <v>24</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="11">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11">
-        <v>5</v>
-      </c>
-      <c r="E15" s="11">
-        <v>28.000000000000004</v>
-      </c>
-      <c r="F15" s="11">
-        <v>50</v>
-      </c>
-      <c r="G15" s="11">
-        <v>17</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
-        <v>2</v>
-      </c>
-      <c r="E16" s="12">
-        <v>13</v>
-      </c>
-      <c r="F16" s="12">
-        <v>35</v>
-      </c>
-      <c r="G16" s="12">
-        <v>50</v>
-      </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7">
+        <v>80</v>
+      </c>
+      <c r="D17" s="7">
+        <v>20</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f>SUM(C17:G17)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="8">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="D18" s="8">
+        <v>80</v>
+      </c>
+      <c r="E18" s="8">
+        <v>13</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" ref="H18:H21" si="2">SUM(C18:G18)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="B19" s="1"/>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>10</v>
+      </c>
+      <c r="E19" s="8">
         <v>80</v>
       </c>
-      <c r="D17" s="10">
+      <c r="F19" s="8">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>13</v>
+      </c>
+      <c r="F20" s="8">
+        <v>80</v>
+      </c>
+      <c r="G20" s="8">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
         <v>20</v>
       </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f>SUM(C17:G17)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="11">
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="G21" s="9">
         <v>80</v>
       </c>
-      <c r="E18" s="11">
-        <v>13</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" ref="H18:H21" si="2">SUM(C18:G18)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="11">
-        <v>0</v>
-      </c>
-      <c r="D19" s="11">
-        <v>10</v>
-      </c>
-      <c r="E19" s="11">
-        <v>80</v>
-      </c>
-      <c r="F19" s="11">
-        <v>10</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="11">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" s="11">
-        <v>13</v>
-      </c>
-      <c r="F20" s="11">
-        <v>80</v>
-      </c>
-      <c r="G20" s="11">
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="12">
-        <v>0</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12">
-        <v>20</v>
-      </c>
-      <c r="G21" s="12">
-        <v>80</v>
-      </c>
-      <c r="H21" s="9">
+      <c r="H21" s="6">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>90</v>
+      </c>
+      <c r="D22" s="7">
         <v>10</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="10">
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <f>SUM(C22:G22)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="8">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8">
         <v>90</v>
       </c>
-      <c r="D22" s="10">
+      <c r="E23" s="8">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" ref="H23:H26" si="3">SUM(C23:G23)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <f>SUM(C22:G22)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="11">
+      <c r="B24" s="1"/>
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8">
+        <v>5</v>
+      </c>
+      <c r="E24" s="8">
+        <v>90</v>
+      </c>
+      <c r="F24" s="8">
+        <v>5</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="F25" s="8">
+        <v>90</v>
+      </c>
+      <c r="G25" s="8">
         <v>3</v>
       </c>
-      <c r="D23" s="11">
+      <c r="H25" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>10</v>
+      </c>
+      <c r="G26" s="9">
         <v>90</v>
       </c>
-      <c r="E23" s="11">
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" ref="H23:H26" si="3">SUM(C23:G23)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="11">
-        <v>0</v>
-      </c>
-      <c r="D24" s="11">
-        <v>5</v>
-      </c>
-      <c r="E24" s="11">
-        <v>90</v>
-      </c>
-      <c r="F24" s="11">
-        <v>5</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="11">
-        <v>0</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="F25" s="11">
-        <v>90</v>
-      </c>
-      <c r="G25" s="11">
-        <v>3</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="12">
-        <v>0</v>
-      </c>
-      <c r="D26" s="12">
-        <v>0</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12">
-        <v>10</v>
-      </c>
-      <c r="G26" s="12">
-        <v>90</v>
-      </c>
-      <c r="H26" s="9">
+      <c r="H26" s="6">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
